--- a/main code/data/네이트판.xlsx
+++ b/main code/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>친구가 질투나고 현타온다</t>
+          <t>모르는 남자랑 2박 3일 여행이라...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>조언 부탁드려요...</t>
+          <t>내가 나쁜애인가</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>내년에 이루고 싶은 거 3개는?</t>
+          <t>가족이랑 해돋이 ㄷ 친구랑 파자마</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>인종차별</t>
+          <t>눈누난나</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -586,25 +586,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>가족 계비</t>
+          <t>늙으면</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이거 가능함??</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>귀여운애들 특징이 뭐냐</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
